--- a/uploads/tareas.xlsx
+++ b/uploads/tareas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\API_SC\archivos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B059E-FBE3-4A7A-A82B-663EC12C2011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127AFC15-F8A9-4A7B-B49B-B065AD502D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Horas</t>
   </si>
   <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
     <t>Estudiante</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Descripcion 19</t>
+  </si>
+  <si>
+    <t>Descripción</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,27 +433,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -470,14 +470,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3" ca="1" si="0">RANDBETWEEN(1, 20)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -511,14 +511,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5" ca="1" si="1">RANDBETWEEN(1, 20)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -552,14 +552,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7" ca="1" si="2">RANDBETWEEN(1, 20)</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -613,14 +613,14 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10" ca="1" si="3">RANDBETWEEN(1, 20)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>14</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -654,14 +654,14 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12" ca="1" si="4">RANDBETWEEN(1, 20)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>16</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -695,14 +695,14 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14" ca="1" si="5">RANDBETWEEN(1, 20)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
       </c>
       <c r="C15">
         <v>5</v>
